--- a/総合テスト/2. カート機能/ST-C-0014_結果.xlsx
+++ b/総合テスト/2. カート機能/ST-C-0014_結果.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Desktop\Cart総合結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02240B0A-2C80-4128-A3F7-901D10772022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB5EB1-25C7-4592-A9BC-6D04BF8D8621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{D79F4811-AACA-4039-B91F-FBD7AA8617A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="カートをすべて削除しますか" sheetId="1" r:id="rId1"/>
-    <sheet name="カートをクリアしました" sheetId="2" r:id="rId2"/>
-    <sheet name="カートモーダル" sheetId="3" r:id="rId3"/>
+    <sheet name="STC-0014_1" sheetId="1" r:id="rId1"/>
+    <sheet name="STC-0014_2" sheetId="2" r:id="rId2"/>
+    <sheet name="STC-0014_3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
